--- a/resource/excel_bar/Squad.xlsx
+++ b/resource/excel_bar/Squad.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuaijiewu\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2415A15B-9E03-4180-8C65-110AED435113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="690" windowWidth="27435" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28440" windowHeight="15570"/>
   </bookViews>
   <sheets>
     <sheet name="SquadData" sheetId="1" r:id="rId1"/>
@@ -19,47 +13,12 @@
     <sheet name="Setting" sheetId="4" r:id="rId4"/>
     <sheet name="_SettingType" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Id</t>
   </si>
@@ -94,6 +53,9 @@
     <t>IsBase</t>
   </si>
   <si>
+    <t>RandomProbability</t>
+  </si>
+  <si>
     <t>OverloadId</t>
   </si>
   <si>
@@ -124,75 +86,111 @@
     <t>Reference:Squad.SquadData</t>
   </si>
   <si>
+    <t>Default:false</t>
+  </si>
+  <si>
     <t>Default:1</t>
   </si>
   <si>
     <t>Partial:3;CustomEnum:_SquadType,_Type;</t>
   </si>
   <si>
+    <t>快速侦察机甲</t>
+  </si>
+  <si>
+    <t>armflea</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>机械步兵</t>
+  </si>
+  <si>
+    <t>armpw</t>
+  </si>
+  <si>
+    <t>轻型侦察车</t>
+  </si>
+  <si>
+    <t>armfav</t>
+  </si>
+  <si>
+    <t>快速突袭机甲</t>
+  </si>
+  <si>
+    <t>legstr</t>
+  </si>
+  <si>
+    <t>轻型坦克</t>
+  </si>
+  <si>
+    <t>corgator</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Gift</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>CountrySpec</t>
+  </si>
+  <si>
+    <t>Placeholder</t>
+  </si>
+  <si>
+    <t>Hide</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>SiegeAttacker</t>
+  </si>
+  <si>
+    <t>BuildingAttacker</t>
+  </si>
+  <si>
+    <t>Trebuchet</t>
+  </si>
+  <si>
+    <t>HuiHuiPao</t>
+  </si>
+  <si>
+    <t>MultiSquad</t>
+  </si>
+  <si>
+    <t>ConfigAttr</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>IntVal</t>
+  </si>
+  <si>
+    <t>StrVal</t>
+  </si>
+  <si>
+    <t>String[]</t>
+  </si>
+  <si>
+    <t>Partial:3;CustomEnum:_SettingType;</t>
+  </si>
+  <si>
+    <t>mon;mon</t>
+  </si>
+  <si>
+    <t>#78C8FF;#FD76D8;#7CFF91;#FFFE00</t>
+  </si>
+  <si>
     <t>回回炮</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Gift</t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
-    <t>CountrySpec</t>
-  </si>
-  <si>
-    <t>Placeholder</t>
-  </si>
-  <si>
-    <t>Hide</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>SiegeAttacker</t>
-  </si>
-  <si>
-    <t>BuildingAttacker</t>
-  </si>
-  <si>
-    <t>Trebuchet</t>
-  </si>
-  <si>
-    <t>HuiHuiPao</t>
-  </si>
-  <si>
-    <t>MultiSquad</t>
-  </si>
-  <si>
-    <t>ConfigAttr</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>IntVal</t>
-  </si>
-  <si>
-    <t>StrVal</t>
-  </si>
-  <si>
-    <t>String[]</t>
-  </si>
-  <si>
-    <t>Partial:3;CustomEnum:_SettingType;</t>
-  </si>
-  <si>
-    <t>mon;mon</t>
-  </si>
-  <si>
-    <t>#78C8FF;#FD76D8;#7CFF91;#FFFE00</t>
-  </si>
-  <si>
     <t>2p_rand_1</t>
   </si>
   <si>
@@ -203,86 +201,198 @@
   </si>
   <si>
     <t>BridgeMsgSize</t>
-  </si>
-  <si>
-    <t>机械步兵</t>
-  </si>
-  <si>
-    <t>快速侦察机甲</t>
-  </si>
-  <si>
-    <t>轻型侦察车</t>
-  </si>
-  <si>
-    <t>armfav</t>
-  </si>
-  <si>
-    <t>armflea</t>
-  </si>
-  <si>
-    <t>armpw</t>
-  </si>
-  <si>
-    <t>Default:false</t>
-  </si>
-  <si>
-    <t>legstr</t>
-  </si>
-  <si>
-    <t>corgator</t>
-  </si>
-  <si>
-    <t>快速突袭机甲</t>
-  </si>
-  <si>
-    <t>轻型坦克</t>
-  </si>
-  <si>
-    <t>RandomProbability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,7 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39994506668294322"/>
+        <fgColor theme="3" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,19 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,12 +431,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -340,9 +636,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -371,7 +909,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -383,42 +933,74 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -705,37 +1287,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="45.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.2833333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.1416666666667" customWidth="1"/>
+    <col min="3" max="3" width="21.425" customWidth="1"/>
+    <col min="4" max="4" width="19.425" customWidth="1"/>
+    <col min="5" max="5" width="17.2833333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.2833333333333" customWidth="1"/>
+    <col min="7" max="7" width="24.2833333333333" customWidth="1"/>
+    <col min="8" max="8" width="30.425" customWidth="1"/>
+    <col min="9" max="9" width="22.5666666666667" customWidth="1"/>
+    <col min="10" max="10" width="36.425" customWidth="1"/>
+    <col min="11" max="11" width="16.2833333333333" customWidth="1"/>
+    <col min="12" max="12" width="45.5666666666667" style="7" customWidth="1"/>
+    <col min="13" max="13" width="14.5666666666667" customWidth="1"/>
+    <col min="14" max="14" width="20.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -772,91 +1355,91 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>59</v>
+      <c r="L1" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="5" customFormat="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" spans="1:14">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="M3" s="3"/>
-      <c r="N3" s="19" t="s">
-        <v>21</v>
+      <c r="N3" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -868,16 +1451,16 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="12"/>
+      <c r="L4" s="17"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="16">
+    <row r="5" ht="15" spans="1:12">
+      <c r="A5" s="8">
         <v>480001</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>49</v>
+      <c r="B5" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -886,20 +1469,23 @@
         <f>SUM(C5)</f>
         <v>9</v>
       </c>
-      <c r="F5" cm="1">
+      <c r="F5">
         <f t="array" ref="F5">MMULT(C5,0.34)</f>
         <v>3.06</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="16">
+        <v>26</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:12">
+      <c r="A6" s="8">
         <v>480002</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>48</v>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C6">
         <v>13</v>
@@ -908,20 +1494,23 @@
         <f t="shared" ref="D6:D9" si="0">SUM(C6)</f>
         <v>13</v>
       </c>
-      <c r="F6" cm="1">
+      <c r="F6">
         <f t="array" ref="F6">MMULT(C6,0.34)</f>
         <v>4.42</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="16">
+        <v>29</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="8">
         <v>480003</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -930,20 +1519,23 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F7" cm="1">
+      <c r="F7">
         <f t="array" ref="F7">MMULT(C7,0.34)</f>
-        <v>3.4000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="17">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="10">
         <v>490001</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>39</v>
@@ -952,20 +1544,23 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F8" cm="1">
+      <c r="F8">
         <f t="array" ref="F8">MMULT(C8,0.34)</f>
-        <v>13.260000000000002</v>
+        <v>13.26</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="17">
+        <v>33</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="10">
         <v>490002</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>24</v>
@@ -974,396 +1569,401 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F9" cm="1">
+      <c r="F9">
         <f t="array" ref="F9">MMULT(C9,0.34)</f>
         <v>8.16</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>35</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="14"/>
+      <c r="A18" s="11"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="14"/>
+      <c r="A19" s="11"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="14"/>
+      <c r="A20" s="11"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="14"/>
+      <c r="A21" s="11"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="14"/>
+      <c r="A22" s="11"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="14"/>
+      <c r="A23" s="11"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="14"/>
+      <c r="A24" s="11"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="14"/>
+      <c r="A25" s="11"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="14"/>
+      <c r="A26" s="11"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="14"/>
+      <c r="A27" s="11"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="14"/>
+      <c r="A28" s="11"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="14"/>
+      <c r="A29" s="11"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="14"/>
+      <c r="A30" s="11"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="14"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="14"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="14"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="14"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="14"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="14"/>
-    </row>
-    <row r="38" spans="1:12" s="6" customFormat="1">
-      <c r="A38" s="15"/>
+      <c r="A32" s="11"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="11"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="11"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="11"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="11"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="11"/>
+    </row>
+    <row r="38" s="6" customFormat="1" spans="1:12">
+      <c r="A38" s="12"/>
       <c r="D38"/>
       <c r="F38"/>
-      <c r="L38" s="13"/>
-    </row>
-    <row r="39" spans="1:12" s="6" customFormat="1">
-      <c r="A39" s="15"/>
+      <c r="L38" s="18"/>
+    </row>
+    <row r="39" s="6" customFormat="1" spans="1:12">
+      <c r="A39" s="12"/>
       <c r="D39"/>
       <c r="F39"/>
-      <c r="L39" s="13"/>
-    </row>
-    <row r="40" spans="1:12" s="6" customFormat="1">
-      <c r="A40" s="15"/>
+      <c r="L39" s="18"/>
+    </row>
+    <row r="40" s="6" customFormat="1" spans="1:12">
+      <c r="A40" s="12"/>
       <c r="D40"/>
       <c r="F40"/>
-      <c r="L40" s="13"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="14"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="14"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="14"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="14"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="14"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="14"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="14"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="14"/>
+      <c r="L40" s="18"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="11"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="11"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="11"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="11"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="11"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="11"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="11"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="11"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="14"/>
+      <c r="A49" s="11"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="14"/>
+      <c r="A50" s="11"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="14"/>
+      <c r="A51" s="11"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="14"/>
+      <c r="A52" s="11"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="14"/>
+      <c r="A53" s="11"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="14"/>
+      <c r="A54" s="11"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="14"/>
+      <c r="A55" s="11"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="14"/>
+      <c r="A56" s="11"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="14"/>
+      <c r="A57" s="11"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="14"/>
+      <c r="A58" s="11"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="14"/>
+      <c r="A59" s="11"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="14"/>
+      <c r="A60" s="11"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="14"/>
+      <c r="A61" s="11"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="14"/>
+      <c r="A62" s="11"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="14"/>
+      <c r="A63" s="11"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="14"/>
+      <c r="A64" s="11"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="14"/>
+      <c r="A65" s="11"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="14"/>
+      <c r="A66" s="11"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="14"/>
+      <c r="A67" s="11"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="14"/>
+      <c r="A68" s="11"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="14"/>
+      <c r="A69" s="11"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="14"/>
+      <c r="A70" s="11"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="14"/>
+      <c r="A71" s="11"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="14"/>
+      <c r="A72" s="11"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="14"/>
+      <c r="A73" s="11"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="14"/>
+      <c r="A74" s="11"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="14"/>
+      <c r="A75" s="11"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="14"/>
+      <c r="A76" s="11"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="14"/>
+      <c r="A77" s="11"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="14"/>
+      <c r="A78" s="11"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="14"/>
+      <c r="A79" s="11"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="14"/>
-    </row>
-    <row r="81" spans="1:13" ht="14.1" customHeight="1">
-      <c r="A81" s="14"/>
-      <c r="M81" s="8"/>
+      <c r="A80" s="11"/>
+    </row>
+    <row r="81" ht="14.1" customHeight="1" spans="1:13">
+      <c r="A81" s="11"/>
+      <c r="M81" s="19"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="14"/>
-      <c r="M82" s="8"/>
+      <c r="A82" s="11"/>
+      <c r="M82" s="19"/>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="14"/>
-      <c r="M83" s="8"/>
+      <c r="A83" s="11"/>
+      <c r="M83" s="19"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="M84" s="8"/>
+      <c r="A84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="M84" s="19"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="M85" s="8"/>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="14"/>
-      <c r="H86" s="14"/>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="14"/>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="14"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="14"/>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="14"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="14"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="14"/>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="14"/>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="14"/>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="14"/>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="14"/>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="14"/>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="14"/>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="14"/>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="14"/>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="14"/>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="14"/>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103" s="14"/>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="14"/>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="14"/>
+      <c r="A85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="M85" s="19"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="11"/>
+      <c r="H86" s="11"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="11"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="11"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="11"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="11"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="11"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="11"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="11"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="11"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="11"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="11"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="11"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="11"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="11"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="11"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="11"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="11"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="11"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="11"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="11"/>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="14"/>
-      <c r="M106" s="8"/>
+      <c r="A106" s="11"/>
+      <c r="M106" s="19"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="14"/>
-      <c r="M107" s="8"/>
+      <c r="A107" s="11"/>
+      <c r="M107" s="19"/>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="14"/>
-      <c r="M108" s="8"/>
+      <c r="A108" s="11"/>
+      <c r="M108" s="19"/>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="14"/>
-      <c r="M109" s="8"/>
-    </row>
-    <row r="110" spans="1:13">
-      <c r="A110" s="14"/>
-    </row>
-    <row r="111" spans="1:13">
-      <c r="A111" s="14"/>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="14"/>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="14"/>
+      <c r="A109" s="11"/>
+      <c r="M109" s="19"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="11"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="11"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="11"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="11"/>
     </row>
     <row r="115" spans="1:13">
-      <c r="A115" s="14"/>
-      <c r="M115" s="8"/>
+      <c r="A115" s="11"/>
+      <c r="M115" s="19"/>
     </row>
     <row r="116" spans="1:13">
-      <c r="A116" s="14"/>
-      <c r="M116" s="8"/>
+      <c r="A116" s="11"/>
+      <c r="M116" s="19"/>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="14"/>
-      <c r="M117" s="8"/>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="A118" s="14"/>
-    </row>
-    <row r="119" spans="1:13">
-      <c r="A119" s="14"/>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="14"/>
-    </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="14"/>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="14"/>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="14"/>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="14"/>
-    </row>
-    <row r="125" spans="1:13">
-      <c r="A125" s="14"/>
-    </row>
-    <row r="126" spans="1:13">
-      <c r="A126" s="14"/>
-    </row>
-    <row r="127" spans="1:13">
-      <c r="A127" s="14"/>
-    </row>
-    <row r="128" spans="1:13">
-      <c r="A128" s="14"/>
+      <c r="A117" s="11"/>
+      <c r="M117" s="19"/>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="11"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="11"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="11"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="11"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="11"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="11"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="11"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="11"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="11"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="11"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="11"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="14"/>
+      <c r="A129" s="11"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="14"/>
+      <c r="A130" s="11"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="14"/>
+      <c r="A131" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1371,7 +1971,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1379,7 +1979,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1387,7 +1987,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1395,7 +1995,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1403,7 +2003,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -1411,25 +2011,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1437,7 +2039,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1445,7 +2047,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1453,7 +2055,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1461,7 +2063,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1469,7 +2071,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1477,7 +2079,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1485,7 +2087,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1493,22 +2095,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="3" width="40.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.7083333333333" customWidth="1"/>
+    <col min="2" max="3" width="40.425" customWidth="1"/>
+    <col min="4" max="4" width="28.425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1516,27 +2120,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1547,29 +2151,29 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1577,7 +2181,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1585,7 +2189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1593,12 +2197,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1606,10 +2210,10 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1617,7 +2221,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1627,25 +2231,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.425" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B1">
         <v>7</v>
@@ -1653,7 +2259,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -1661,7 +2267,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1669,5 +2275,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/resource/excel_bar/Squad.xlsx
+++ b/resource/excel_bar/Squad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28440" windowHeight="15570"/>
+    <workbookView windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="SquadData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -126,6 +126,24 @@
   </si>
   <si>
     <t>corgator</t>
+  </si>
+  <si>
+    <t>导弹卡车</t>
+  </si>
+  <si>
+    <t>cormist</t>
+  </si>
+  <si>
+    <t>筒子机甲</t>
+  </si>
+  <si>
+    <t>corstorm</t>
+  </si>
+  <si>
+    <t>火龙飞艇</t>
+  </si>
+  <si>
+    <t>corcrwh</t>
   </si>
   <si>
     <t>Normal</t>
@@ -208,13 +226,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,29 +260,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,63 +289,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,6 +318,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -370,7 +349,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,15 +395,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,7 +442,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,31 +478,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,151 +640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,30 +651,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -672,17 +665,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,7 +697,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,6 +731,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -742,10 +759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,137 +771,137 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,10 +929,22 @@
     <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -933,16 +962,22 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1293,14 +1328,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N131"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1355,7 +1390,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1399,7 +1434,7 @@
       <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1429,11 +1464,11 @@
       <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="19" t="s">
         <v>23</v>
       </c>
       <c r="M3" s="3"/>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1451,7 +1486,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="17"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
@@ -1462,21 +1497,26 @@
       <c r="B5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="D5" s="10">
         <f>SUM(C5)</f>
-        <v>9</v>
-      </c>
-      <c r="F5">
+        <v>5.5</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10">
         <f t="array" ref="F5">MMULT(C5,0.34)</f>
-        <v>3.06</v>
-      </c>
-      <c r="J5" t="s">
+        <v>1.87</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1487,21 +1527,26 @@
       <c r="B6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D9" si="0">SUM(C6)</f>
-        <v>13</v>
-      </c>
-      <c r="F6">
+      <c r="C6" s="10">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" ref="D6:D11" si="0">SUM(C6)</f>
+        <v>6</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
         <f t="array" ref="F6">MMULT(C6,0.34)</f>
-        <v>4.42</v>
-      </c>
-      <c r="J6" t="s">
+        <v>2.04</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="K6" s="10"/>
+      <c r="L6" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1509,436 +1554,541 @@
       <c r="A7" s="8">
         <v>480003</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F7">
+        <v>5.7</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
         <f t="array" ref="F7">MMULT(C7,0.34)</f>
-        <v>3.4</v>
-      </c>
-      <c r="J7" t="s">
+        <v>1.938</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="K7" s="10"/>
+      <c r="L7" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>490001</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="12">
+        <v>13</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12">
+        <f t="array" ref="F8">MMULT(C8,0.34)</f>
+        <v>4.42</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="11">
+        <v>490002</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="12">
+        <v>7</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
+        <f t="array" ref="F9">MMULT(C9,0.34)</f>
+        <v>2.38</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="8">
+        <v>500001</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="10">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
+        <f t="array" ref="F10">MMULT(C10,0.34)</f>
+        <v>4.76</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:12">
+      <c r="A11" s="8">
+        <v>500002</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="10">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <f t="array" ref="F11">MMULT(C11,0.34)</f>
+        <v>4.08</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="F8">
-        <f t="array" ref="F8">MMULT(C8,0.34)</f>
-        <v>13.26</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="K11" s="10"/>
+      <c r="L11" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="10">
-        <v>490002</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <f t="array" ref="F9">MMULT(C9,0.34)</f>
-        <v>8.16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11"/>
+    <row r="12" spans="1:12">
+      <c r="A12" s="13">
+        <v>1</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="14">
+        <v>120</v>
+      </c>
+      <c r="D12" s="14">
+        <f>SUM(C12)</f>
+        <v>120</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14">
+        <f t="array" ref="F12">MMULT(C12,0.34)</f>
+        <v>40.8</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="11"/>
+      <c r="A20" s="15"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="11"/>
+      <c r="A21" s="15"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="11"/>
+      <c r="A22" s="15"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="11"/>
+      <c r="A23" s="15"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="11"/>
+      <c r="A24" s="15"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="11"/>
+      <c r="A25" s="15"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="11"/>
+      <c r="A26" s="15"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="11"/>
+      <c r="A27" s="15"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="11"/>
+      <c r="A28" s="15"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="11"/>
+      <c r="A29" s="15"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="11"/>
+      <c r="A30" s="15"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="15"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="11"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="11"/>
+      <c r="A32" s="15"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="11"/>
+      <c r="A34" s="15"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="11"/>
+      <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="11"/>
+      <c r="A36" s="15"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="11"/>
-    </row>
-    <row r="38" s="6" customFormat="1" spans="1:12">
-      <c r="A38" s="12"/>
-      <c r="D38"/>
-      <c r="F38"/>
-      <c r="L38" s="18"/>
-    </row>
-    <row r="39" s="6" customFormat="1" spans="1:12">
-      <c r="A39" s="12"/>
-      <c r="D39"/>
-      <c r="F39"/>
-      <c r="L39" s="18"/>
+      <c r="A37" s="15"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="15"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="15"/>
     </row>
     <row r="40" s="6" customFormat="1" spans="1:12">
-      <c r="A40" s="12"/>
+      <c r="A40" s="16"/>
       <c r="D40"/>
       <c r="F40"/>
-      <c r="L40" s="18"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="11"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="11"/>
+      <c r="L40" s="24"/>
+    </row>
+    <row r="41" s="6" customFormat="1" spans="1:12">
+      <c r="A41" s="16"/>
+      <c r="D41"/>
+      <c r="F41"/>
+      <c r="L41" s="24"/>
+    </row>
+    <row r="42" s="6" customFormat="1" spans="1:12">
+      <c r="A42" s="16"/>
+      <c r="D42"/>
+      <c r="F42"/>
+      <c r="L42" s="24"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="11"/>
+      <c r="A43" s="15"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="11"/>
+      <c r="A44" s="15"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="11"/>
+      <c r="A45" s="15"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="11"/>
+      <c r="A46" s="15"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="11"/>
+      <c r="A47" s="15"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="11"/>
+      <c r="A48" s="15"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="11"/>
+      <c r="A49" s="15"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="11"/>
+      <c r="A50" s="15"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="11"/>
+      <c r="A51" s="15"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="11"/>
+      <c r="A52" s="15"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="11"/>
+      <c r="A53" s="15"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="11"/>
+      <c r="A54" s="15"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="11"/>
+      <c r="A55" s="15"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="11"/>
+      <c r="A56" s="15"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="11"/>
+      <c r="A57" s="15"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="11"/>
+      <c r="A58" s="15"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="11"/>
+      <c r="A59" s="15"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="11"/>
+      <c r="A60" s="15"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="11"/>
+      <c r="A61" s="15"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="11"/>
+      <c r="A62" s="15"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="11"/>
+      <c r="A63" s="15"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="11"/>
+      <c r="A64" s="15"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="11"/>
+      <c r="A65" s="15"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="11"/>
+      <c r="A66" s="15"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="11"/>
+      <c r="A67" s="15"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="11"/>
+      <c r="A68" s="15"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="11"/>
+      <c r="A69" s="15"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="11"/>
+      <c r="A70" s="15"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="11"/>
+      <c r="A71" s="15"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="11"/>
+      <c r="A72" s="15"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="11"/>
+      <c r="A73" s="15"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="11"/>
+      <c r="A74" s="15"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="11"/>
+      <c r="A75" s="15"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="11"/>
+      <c r="A76" s="15"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="11"/>
+      <c r="A77" s="15"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="11"/>
+      <c r="A78" s="15"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="11"/>
+      <c r="A79" s="15"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="11"/>
-    </row>
-    <row r="81" ht="14.1" customHeight="1" spans="1:13">
-      <c r="A81" s="11"/>
-      <c r="M81" s="19"/>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="11"/>
-      <c r="M82" s="19"/>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="11"/>
-      <c r="M83" s="19"/>
+      <c r="A80" s="15"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="15"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="15"/>
+    </row>
+    <row r="83" ht="14.1" customHeight="1" spans="1:13">
+      <c r="A83" s="15"/>
+      <c r="M83" s="25"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="M84" s="19"/>
+      <c r="A84" s="15"/>
+      <c r="M84" s="25"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="M85" s="19"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="11"/>
-      <c r="H86" s="11"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="11"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="11"/>
+      <c r="A85" s="15"/>
+      <c r="M85" s="25"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="M86" s="25"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="M87" s="25"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="15"/>
+      <c r="H88" s="15"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="11"/>
+      <c r="A89" s="15"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="11"/>
+      <c r="A90" s="15"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="11"/>
+      <c r="A91" s="15"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="11"/>
+      <c r="A92" s="15"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="11"/>
+      <c r="A93" s="15"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="11"/>
+      <c r="A94" s="15"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="11"/>
+      <c r="A95" s="15"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="11"/>
+      <c r="A96" s="15"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="11"/>
+      <c r="A97" s="15"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="11"/>
+      <c r="A98" s="15"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="11"/>
+      <c r="A99" s="15"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="11"/>
+      <c r="A100" s="15"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="11"/>
+      <c r="A101" s="15"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="11"/>
+      <c r="A102" s="15"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="11"/>
+      <c r="A103" s="15"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="11"/>
+      <c r="A104" s="15"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="11"/>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106" s="11"/>
-      <c r="M106" s="19"/>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" s="11"/>
-      <c r="M107" s="19"/>
+      <c r="A105" s="15"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="15"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="15"/>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="11"/>
-      <c r="M108" s="19"/>
+      <c r="A108" s="15"/>
+      <c r="M108" s="25"/>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="11"/>
-      <c r="M109" s="19"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="11"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="11"/>
+      <c r="A109" s="15"/>
+      <c r="M109" s="25"/>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="15"/>
+      <c r="M110" s="25"/>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="15"/>
+      <c r="M111" s="25"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="11"/>
+      <c r="A112" s="15"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="15"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="11"/>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="11"/>
-      <c r="M115" s="19"/>
-    </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="11"/>
-      <c r="M116" s="19"/>
+      <c r="A114" s="15"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="15"/>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="11"/>
-      <c r="M117" s="19"/>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="11"/>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="11"/>
+      <c r="A117" s="15"/>
+      <c r="M117" s="25"/>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="15"/>
+      <c r="M118" s="25"/>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="15"/>
+      <c r="M119" s="25"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="11"/>
+      <c r="A120" s="15"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="11"/>
+      <c r="A121" s="15"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="11"/>
+      <c r="A122" s="15"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="11"/>
+      <c r="A123" s="15"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="11"/>
+      <c r="A124" s="15"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="11"/>
+      <c r="A125" s="15"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="11"/>
+      <c r="A126" s="15"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="11"/>
+      <c r="A127" s="15"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="11"/>
+      <c r="A128" s="15"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="11"/>
+      <c r="A129" s="15"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="11"/>
+      <c r="A130" s="15"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="11"/>
+      <c r="A131" s="15"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="15"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1963,7 +2113,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1971,7 +2121,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1979,7 +2129,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1987,7 +2137,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1995,7 +2145,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2003,7 +2153,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -2031,7 +2181,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2039,7 +2189,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2047,7 +2197,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2055,7 +2205,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2063,7 +2213,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2071,7 +2221,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2079,7 +2229,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2087,7 +2237,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2120,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2134,7 +2284,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -2151,7 +2301,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2162,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2170,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2202,7 +2352,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2210,7 +2360,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2251,7 +2401,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B1">
         <v>7</v>
@@ -2259,7 +2409,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -2267,7 +2417,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>8</v>

--- a/resource/excel_bar/Squad.xlsx
+++ b/resource/excel_bar/Squad.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\bililive_dm\resource\excel_bar\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6900B090-EB0A-4C77-8C90-2BD3F0446A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="10935"/>
+    <workbookView xWindow="-34830" yWindow="6740" windowWidth="25490" windowHeight="12550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SquadData" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,25 @@
     <sheet name="Setting" sheetId="4" r:id="rId4"/>
     <sheet name="_SettingType" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
   <si>
     <t>Id</t>
   </si>
@@ -219,37 +238,52 @@
   </si>
   <si>
     <t>BridgeMsgSize</t>
+  </si>
+  <si>
+    <t>3级终结者坦克</t>
+  </si>
+  <si>
+    <t>armthor</t>
+  </si>
+  <si>
+    <t>轻型自走火炮</t>
+  </si>
+  <si>
+    <t>armart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -258,152 +292,8 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,7 +302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399945066682943"/>
+        <fgColor theme="3" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,13 +314,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,13 +338,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,180 +362,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -653,255 +375,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,31 +391,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
@@ -947,10 +427,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -959,7 +439,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -974,68 +454,27 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1322,38 +761,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.2833333333333" customWidth="1"/>
-    <col min="2" max="2" width="20.1416666666667" customWidth="1"/>
-    <col min="3" max="3" width="21.425" customWidth="1"/>
-    <col min="4" max="4" width="19.425" customWidth="1"/>
-    <col min="5" max="5" width="17.2833333333333" customWidth="1"/>
-    <col min="6" max="6" width="15.2833333333333" customWidth="1"/>
-    <col min="7" max="7" width="24.2833333333333" customWidth="1"/>
-    <col min="8" max="8" width="30.425" customWidth="1"/>
-    <col min="9" max="9" width="22.5666666666667" customWidth="1"/>
-    <col min="10" max="10" width="36.425" customWidth="1"/>
-    <col min="11" max="11" width="16.2833333333333" customWidth="1"/>
-    <col min="12" max="12" width="45.5666666666667" style="7" customWidth="1"/>
-    <col min="13" max="13" width="14.5666666666667" customWidth="1"/>
-    <col min="14" max="14" width="20.1416666666667" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="45.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1444,7 +882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="1:14">
+    <row r="3" spans="1:14" s="5" customFormat="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1490,7 +928,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" ht="15" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5" s="8">
         <v>480001</v>
       </c>
@@ -1520,7 +958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6" s="8">
         <v>480002</v>
       </c>
@@ -1550,7 +988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7" s="8">
         <v>480003</v>
       </c>
@@ -1567,7 +1005,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10">
         <f t="array" ref="F7">MMULT(C7,0.34)</f>
-        <v>1.938</v>
+        <v>1.9380000000000002</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1580,7 +1018,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14">
       <c r="A8" s="11">
         <v>490001</v>
       </c>
@@ -1610,7 +1048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9" s="11">
         <v>490002</v>
       </c>
@@ -1627,7 +1065,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12">
         <f t="array" ref="F9">MMULT(C9,0.34)</f>
-        <v>2.38</v>
+        <v>2.3800000000000003</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1640,7 +1078,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:14">
       <c r="A10" s="8">
         <v>500001</v>
       </c>
@@ -1657,7 +1095,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10">
         <f t="array" ref="F10">MMULT(C10,0.34)</f>
-        <v>4.76</v>
+        <v>4.7600000000000007</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -1670,7 +1108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:12">
+    <row r="11" spans="1:14">
       <c r="A11" s="8">
         <v>500002</v>
       </c>
@@ -1700,7 +1138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14">
       <c r="A12" s="13">
         <v>1</v>
       </c>
@@ -1717,7 +1155,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14">
         <f t="array" ref="F12">MMULT(C12,0.34)</f>
-        <v>40.8</v>
+        <v>40.800000000000004</v>
       </c>
       <c r="G12" s="14">
         <v>1</v>
@@ -1730,6 +1168,66 @@
       <c r="K12" s="14"/>
       <c r="L12" s="23"/>
     </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="14">
+        <v>60</v>
+      </c>
+      <c r="D13" s="14">
+        <f>SUM(C13)</f>
+        <v>60</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14">
+        <f t="array" ref="F13">MMULT(C13,0.34)</f>
+        <v>20.400000000000002</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="23"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="13">
+        <v>3</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="14">
+        <v>40</v>
+      </c>
+      <c r="D14" s="14">
+        <f>SUM(C14)</f>
+        <v>40</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14">
+        <f t="array" ref="F14">MMULT(C14,0.34)</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="23"/>
+    </row>
     <row r="20" spans="1:1">
       <c r="A20" s="15"/>
     </row>
@@ -1769,58 +1267,58 @@
     <row r="32" spans="1:1">
       <c r="A32" s="15"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:12">
       <c r="A34" s="15"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:12">
       <c r="A35" s="15"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:12">
       <c r="A36" s="15"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:12">
       <c r="A37" s="15"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:12">
       <c r="A38" s="15"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:12">
       <c r="A39" s="15"/>
     </row>
-    <row r="40" s="6" customFormat="1" spans="1:12">
+    <row r="40" spans="1:12" s="6" customFormat="1">
       <c r="A40" s="16"/>
       <c r="D40"/>
       <c r="F40"/>
       <c r="L40" s="24"/>
     </row>
-    <row r="41" s="6" customFormat="1" spans="1:12">
+    <row r="41" spans="1:12" s="6" customFormat="1">
       <c r="A41" s="16"/>
       <c r="D41"/>
       <c r="F41"/>
       <c r="L41" s="24"/>
     </row>
-    <row r="42" s="6" customFormat="1" spans="1:12">
+    <row r="42" spans="1:12" s="6" customFormat="1">
       <c r="A42" s="16"/>
       <c r="D42"/>
       <c r="F42"/>
       <c r="L42" s="24"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:12">
       <c r="A43" s="15"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:12">
       <c r="A44" s="15"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:12">
       <c r="A45" s="15"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:12">
       <c r="A46" s="15"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:12">
       <c r="A47" s="15"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:12">
       <c r="A48" s="15"/>
     </row>
     <row r="49" spans="1:1">
@@ -1919,13 +1417,13 @@
     <row r="80" spans="1:1">
       <c r="A80" s="15"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:13">
       <c r="A81" s="15"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:13">
       <c r="A82" s="15"/>
     </row>
-    <row r="83" ht="14.1" customHeight="1" spans="1:13">
+    <row r="83" spans="1:13" ht="14.1" customHeight="1">
       <c r="A83" s="15"/>
       <c r="M83" s="25"/>
     </row>
@@ -1947,65 +1445,65 @@
       <c r="H87" s="15"/>
       <c r="M87" s="25"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:13">
       <c r="A88" s="15"/>
       <c r="H88" s="15"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:13">
       <c r="A89" s="15"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:13">
       <c r="A90" s="15"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:13">
       <c r="A91" s="15"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:13">
       <c r="A92" s="15"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:13">
       <c r="A93" s="15"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:13">
       <c r="A94" s="15"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:13">
       <c r="A95" s="15"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:13">
       <c r="A96" s="15"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:13">
       <c r="A97" s="15"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:13">
       <c r="A98" s="15"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:13">
       <c r="A99" s="15"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:13">
       <c r="A100" s="15"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:13">
       <c r="A101" s="15"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:13">
       <c r="A102" s="15"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:13">
       <c r="A103" s="15"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:13">
       <c r="A104" s="15"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:13">
       <c r="A105" s="15"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:13">
       <c r="A106" s="15"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:13">
       <c r="A107" s="15"/>
     </row>
     <row r="108" spans="1:13">
@@ -2024,16 +1522,16 @@
       <c r="A111" s="15"/>
       <c r="M111" s="25"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:13">
       <c r="A112" s="15"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:13">
       <c r="A113" s="15"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:13">
       <c r="A114" s="15"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:13">
       <c r="A116" s="15"/>
     </row>
     <row r="117" spans="1:13">
@@ -2048,31 +1546,31 @@
       <c r="A119" s="15"/>
       <c r="M119" s="25"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:13">
       <c r="A120" s="15"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:13">
       <c r="A121" s="15"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:13">
       <c r="A122" s="15"/>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:13">
       <c r="A123" s="15"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:13">
       <c r="A124" s="15"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:13">
       <c r="A125" s="15"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:13">
       <c r="A126" s="15"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:13">
       <c r="A127" s="15"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:13">
       <c r="A128" s="15"/>
     </row>
     <row r="129" spans="1:1">
@@ -2092,23 +1590,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.1416666666667" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2161,22 +1657,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.425" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2245,24 +1739,22 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.7083333333333" customWidth="1"/>
-    <col min="2" max="3" width="40.425" customWidth="1"/>
-    <col min="4" max="4" width="28.425" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="3" width="40.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2307,7 +1799,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2315,7 +1807,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2323,7 +1815,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2331,7 +1823,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2339,7 +1831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2347,7 +1839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2363,7 +1855,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2371,7 +1863,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2381,22 +1873,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.425" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2425,6 +1915,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/resource/excel_bar/Squad.xlsx
+++ b/resource/excel_bar/Squad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12315"/>
+    <workbookView windowWidth="26985" windowHeight="17670"/>
   </bookViews>
   <sheets>
     <sheet name="SquadData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="182">
   <si>
     <t>Id</t>
   </si>
@@ -158,6 +158,12 @@
     <t>armmart</t>
   </si>
   <si>
+    <t>扭力弩炮</t>
+  </si>
+  <si>
+    <t>legbal</t>
+  </si>
+  <si>
     <t>导弹卡车</t>
   </si>
   <si>
@@ -182,6 +188,12 @@
     <t>corcrash</t>
   </si>
   <si>
+    <t>蝎尾狮(防空)</t>
+  </si>
+  <si>
+    <t>coraak</t>
+  </si>
+  <si>
     <t>女妖(对地)</t>
   </si>
   <si>
@@ -206,6 +218,12 @@
     <t>corbw</t>
   </si>
   <si>
+    <t>黄蜂</t>
+  </si>
+  <si>
+    <t>corape</t>
+  </si>
+  <si>
     <t>狂风</t>
   </si>
   <si>
@@ -224,12 +242,6 @@
     <t>armfig</t>
   </si>
   <si>
-    <t>黄蜂</t>
-  </si>
-  <si>
-    <t>corape</t>
-  </si>
-  <si>
     <t>旋风</t>
   </si>
   <si>
@@ -248,10 +260,226 @@
     <t>coramph</t>
   </si>
   <si>
-    <t>蝎尾狮</t>
-  </si>
-  <si>
-    <t>coraak</t>
+    <t>重型火炮</t>
+  </si>
+  <si>
+    <t>cortrem</t>
+  </si>
+  <si>
+    <t>持盾进攻机甲</t>
+  </si>
+  <si>
+    <t>legshot</t>
+  </si>
+  <si>
+    <t>汽油弹</t>
+  </si>
+  <si>
+    <t>legbart</t>
+  </si>
+  <si>
+    <t>炸弹蜘蛛</t>
+  </si>
+  <si>
+    <t>corsktl</t>
+  </si>
+  <si>
+    <t>谢尔顿</t>
+  </si>
+  <si>
+    <t>cormort</t>
+  </si>
+  <si>
+    <t>白蚁</t>
+  </si>
+  <si>
+    <t>cortermite</t>
+  </si>
+  <si>
+    <t>自爆虫</t>
+  </si>
+  <si>
+    <t>corroach</t>
+  </si>
+  <si>
+    <t>半人马</t>
+  </si>
+  <si>
+    <t>legcen</t>
+  </si>
+  <si>
+    <t>侦察机甲</t>
+  </si>
+  <si>
+    <t>armmav</t>
+  </si>
+  <si>
+    <t>猎犬</t>
+  </si>
+  <si>
+    <t>armfido</t>
+  </si>
+  <si>
+    <t>鸭嘴兽</t>
+  </si>
+  <si>
+    <t>armamph</t>
+  </si>
+  <si>
+    <t>轨道炮蜘蛛</t>
+  </si>
+  <si>
+    <t>legsrail</t>
+  </si>
+  <si>
+    <t>感染者</t>
+  </si>
+  <si>
+    <t>leginfestor</t>
+  </si>
+  <si>
+    <t>斗牛犬</t>
+  </si>
+  <si>
+    <t>armbull</t>
+  </si>
+  <si>
+    <t>隐形坦克</t>
+  </si>
+  <si>
+    <t>armgremlin</t>
+  </si>
+  <si>
+    <t>电能坦克</t>
+  </si>
+  <si>
+    <t>armlatnk</t>
+  </si>
+  <si>
+    <t>百夫长</t>
+  </si>
+  <si>
+    <t>armwar</t>
+  </si>
+  <si>
+    <t>中型进攻坦克</t>
+  </si>
+  <si>
+    <t>leggat</t>
+  </si>
+  <si>
+    <t>海龟</t>
+  </si>
+  <si>
+    <t>armcroc</t>
+  </si>
+  <si>
+    <t>炮手</t>
+  </si>
+  <si>
+    <t>armrock</t>
+  </si>
+  <si>
+    <t>大兵</t>
+  </si>
+  <si>
+    <t>corak</t>
+  </si>
+  <si>
+    <t>暴徒</t>
+  </si>
+  <si>
+    <t>corthud</t>
+  </si>
+  <si>
+    <t>筒子机甲</t>
+  </si>
+  <si>
+    <t>corstorm</t>
+  </si>
+  <si>
+    <t>喷火飞艇</t>
+  </si>
+  <si>
+    <t>corcrwh</t>
+  </si>
+  <si>
+    <t>3级终结者坦克</t>
+  </si>
+  <si>
+    <t>armthor</t>
+  </si>
+  <si>
+    <t>星光</t>
+  </si>
+  <si>
+    <t>armmanni</t>
+  </si>
+  <si>
+    <t>全地形重型等离子炮</t>
+  </si>
+  <si>
+    <t>armvang</t>
+  </si>
+  <si>
+    <t>突袭机甲</t>
+  </si>
+  <si>
+    <t>legstr</t>
+  </si>
+  <si>
+    <t>泰坦</t>
+  </si>
+  <si>
+    <t>armbanth</t>
+  </si>
+  <si>
+    <t>移动式重型炮塔(主宰)</t>
+  </si>
+  <si>
+    <t>corjugg</t>
+  </si>
+  <si>
+    <t>恶魔</t>
+  </si>
+  <si>
+    <t>cordemon</t>
+  </si>
+  <si>
+    <t>实验性突击机甲</t>
+  </si>
+  <si>
+    <t>corkorg</t>
+  </si>
+  <si>
+    <t>电锯</t>
+  </si>
+  <si>
+    <t>armcir</t>
+  </si>
+  <si>
+    <t>雪貂防空</t>
+  </si>
+  <si>
+    <t>armferret</t>
+  </si>
+  <si>
+    <t>末日机器</t>
+  </si>
+  <si>
+    <t>cordoom</t>
+  </si>
+  <si>
+    <t>等离子偏转护盾</t>
+  </si>
+  <si>
+    <t>armgate</t>
+  </si>
+  <si>
+    <t>灾祸</t>
+  </si>
+  <si>
+    <t>corbuzz</t>
   </si>
   <si>
     <t>猛犸象</t>
@@ -260,193 +488,22 @@
     <t>corsumo</t>
   </si>
   <si>
-    <t>重型火炮</t>
-  </si>
-  <si>
-    <t>cortrem</t>
-  </si>
-  <si>
-    <t>炸弹蜘蛛</t>
-  </si>
-  <si>
-    <t>corsktl</t>
-  </si>
-  <si>
-    <t>谢尔顿</t>
-  </si>
-  <si>
-    <t>cormort</t>
-  </si>
-  <si>
     <t>相扑选手</t>
   </si>
   <si>
     <t>corcan</t>
   </si>
   <si>
-    <t>白蚁</t>
-  </si>
-  <si>
-    <t>cortermite</t>
-  </si>
-  <si>
-    <t>自爆虫</t>
-  </si>
-  <si>
-    <t>corroach</t>
-  </si>
-  <si>
     <t>胖男孩</t>
   </si>
   <si>
     <t>armfboy</t>
   </si>
   <si>
-    <t>侦察机甲(自动修复)</t>
-  </si>
-  <si>
-    <t>armmav</t>
-  </si>
-  <si>
-    <t>猎犬</t>
-  </si>
-  <si>
-    <t>armfido</t>
-  </si>
-  <si>
-    <t>鸭嘴兽</t>
-  </si>
-  <si>
-    <t>armamph</t>
-  </si>
-  <si>
-    <t>斗牛犬</t>
-  </si>
-  <si>
-    <t>armbull</t>
-  </si>
-  <si>
-    <t>隐形坦克</t>
-  </si>
-  <si>
-    <t>电能坦克</t>
-  </si>
-  <si>
-    <t>armlatnk</t>
-  </si>
-  <si>
-    <t>百夫长</t>
-  </si>
-  <si>
-    <t>armwar</t>
-  </si>
-  <si>
-    <t>海龟</t>
-  </si>
-  <si>
-    <t>armcroc</t>
-  </si>
-  <si>
-    <t>炮手</t>
-  </si>
-  <si>
-    <t>armrock</t>
-  </si>
-  <si>
-    <t>大兵</t>
-  </si>
-  <si>
-    <t>corak</t>
-  </si>
-  <si>
-    <t>暴徒</t>
-  </si>
-  <si>
-    <t>corthud</t>
-  </si>
-  <si>
-    <t>筒子机甲</t>
-  </si>
-  <si>
-    <t>corstorm</t>
-  </si>
-  <si>
-    <t>3级终结者坦克</t>
-  </si>
-  <si>
-    <t>armthor</t>
-  </si>
-  <si>
-    <t>星光</t>
-  </si>
-  <si>
-    <t>armmanni</t>
-  </si>
-  <si>
-    <t>全地形重型等离子炮</t>
-  </si>
-  <si>
-    <t>armvang</t>
-  </si>
-  <si>
-    <t>突袭机甲</t>
-  </si>
-  <si>
-    <t>legstr</t>
-  </si>
-  <si>
-    <t>泰坦</t>
-  </si>
-  <si>
-    <t>armbanth</t>
-  </si>
-  <si>
-    <t>移动式重型炮塔(主宰)</t>
-  </si>
-  <si>
-    <t>corjugg</t>
-  </si>
-  <si>
-    <t>恶魔</t>
-  </si>
-  <si>
-    <t>cordemon</t>
-  </si>
-  <si>
-    <t>实验性突击机甲</t>
-  </si>
-  <si>
-    <t>corkorg</t>
-  </si>
-  <si>
-    <t>电锯</t>
-  </si>
-  <si>
-    <t>armcir</t>
-  </si>
-  <si>
-    <t>雪貂防空</t>
-  </si>
-  <si>
-    <t>armferret</t>
-  </si>
-  <si>
-    <t>末日机器</t>
-  </si>
-  <si>
-    <t>cordoom</t>
-  </si>
-  <si>
-    <t>等离子偏转护盾</t>
-  </si>
-  <si>
-    <t>armgate</t>
-  </si>
-  <si>
-    <t>灾祸</t>
-  </si>
-  <si>
-    <t>corbuzz</t>
+    <t>移动式重热射线</t>
+  </si>
+  <si>
+    <t>leginc</t>
   </si>
   <si>
     <t>Normal</t>
@@ -515,9 +572,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -555,21 +612,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -591,16 +633,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,46 +660,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,15 +679,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,19 +805,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="0" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +823,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,43 +943,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,19 +955,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,79 +985,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,45 +1005,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1022,6 +1044,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1037,11 +1079,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,10 +1110,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,137 +1122,137 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1247,31 +1304,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1298,10 +1346,7 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1316,7 +1361,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1667,14 +1712,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1686,8 +1731,8 @@
     <col min="5" max="5" width="17.2833333333333" customWidth="1"/>
     <col min="6" max="6" width="15.2833333333333" customWidth="1"/>
     <col min="7" max="7" width="24.2833333333333" customWidth="1"/>
-    <col min="8" max="8" width="30.425" customWidth="1"/>
-    <col min="9" max="9" width="22.5666666666667" customWidth="1"/>
+    <col min="8" max="8" width="30.425" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5666666666667" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="36.425" customWidth="1"/>
     <col min="11" max="11" width="16.2833333333333" customWidth="1"/>
     <col min="12" max="12" width="45.5666666666667" style="10" customWidth="1"/>
@@ -1729,7 +1774,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1773,7 +1818,7 @@
       <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="25" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1803,7 +1848,7 @@
       <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M3" s="3"/>
@@ -1825,7 +1870,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="30"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
@@ -1837,20 +1882,20 @@
         <v>25</v>
       </c>
       <c r="C5" s="13">
-        <v>6</v>
+        <v>3.08</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" ref="D5:D20" si="0">SUM(C5)</f>
-        <v>6</v>
+        <f>SUM(C5)</f>
+        <v>3.08</v>
       </c>
       <c r="F5" s="6">
-        <f t="array" ref="F5">MMULT(C5,0.34)</f>
-        <v>2.04</v>
+        <f>MMULT(C5,0.36)</f>
+        <v>1.1088</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1862,20 +1907,20 @@
         <v>28</v>
       </c>
       <c r="C6" s="13">
-        <v>6.7</v>
+        <v>4.16</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>6.7</v>
+        <f>SUM(C6)</f>
+        <v>4.16</v>
       </c>
       <c r="F6" s="6">
-        <f t="array" ref="F6">MMULT(C6,0.34)</f>
-        <v>2.278</v>
+        <f t="shared" ref="F6:F48" si="0">MMULT(C6,0.36)</f>
+        <v>1.4976</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="28" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1887,20 +1932,20 @@
         <v>31</v>
       </c>
       <c r="C7" s="13">
-        <v>6.2</v>
+        <v>2.86</v>
       </c>
       <c r="D7" s="6">
+        <f>SUM(C7)</f>
+        <v>2.86</v>
+      </c>
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>6.2</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="array" ref="F7">MMULT(C7,0.34)</f>
-        <v>2.108</v>
+        <v>1.0296</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="28" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1912,20 +1957,20 @@
         <v>33</v>
       </c>
       <c r="C8" s="13">
-        <v>14</v>
+        <v>9.1</v>
       </c>
       <c r="D8" s="6">
+        <f>SUM(C8)</f>
+        <v>9.1</v>
+      </c>
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="array" ref="F8">MMULT(C8,0.34)</f>
-        <v>4.76</v>
+        <v>3.276</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="28" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1937,20 +1982,20 @@
         <v>36</v>
       </c>
       <c r="C9" s="13">
-        <v>16</v>
+        <v>11.83</v>
       </c>
       <c r="D9" s="6">
+        <f t="shared" ref="D9:D19" si="1">SUM(C9)</f>
+        <v>11.83</v>
+      </c>
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="array" ref="F9">MMULT(C9,0.34)</f>
-        <v>5.44</v>
+        <v>4.2588</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="28" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1962,16 +2007,16 @@
         <v>38</v>
       </c>
       <c r="C10" s="16">
-        <v>40</v>
-      </c>
-      <c r="D10" s="17">
+        <v>52</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15">
-        <f t="array" ref="F10">MMULT(C10,0.34)</f>
-        <v>13.6</v>
+        <v>18.72</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -1980,32 +2025,32 @@
         <v>39</v>
       </c>
       <c r="K10" s="15"/>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" s="7" customFormat="1" spans="1:12">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>490002</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="19">
-        <v>16</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="C11" s="18">
+        <v>18.85</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="1"/>
+        <v>18.85</v>
+      </c>
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="array" ref="F11">MMULT(C11,0.34)</f>
-        <v>5.44</v>
+        <v>6.786</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="L11" s="30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2016,21 +2061,21 @@
       <c r="B12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="19">
-        <v>42</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="C12" s="18">
+        <v>24.7</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="1"/>
+        <v>24.7</v>
+      </c>
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="array" ref="F12">MMULT(C12,0.34)</f>
-        <v>14.28</v>
+        <v>8.892</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="L12" s="30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2041,1651 +2086,1875 @@
       <c r="B13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="19">
-        <v>27</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="C13" s="18">
+        <v>55.9</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="1"/>
+        <v>55.9</v>
+      </c>
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="array" ref="F13">MMULT(C13,0.34)</f>
-        <v>9.18</v>
+        <v>20.124</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" s="6" customFormat="1" spans="1:12">
-      <c r="A14" s="11">
-        <v>500001</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="L13" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" s="7" customFormat="1" spans="1:12">
+      <c r="A14" s="14">
+        <v>490005</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="13">
-        <v>26</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="18">
+        <v>16.38</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="1"/>
+        <v>16.38</v>
+      </c>
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="array" ref="F14">MMULT(C14,0.34)</f>
-        <v>8.84</v>
-      </c>
-      <c r="J14" s="6" t="s">
+        <v>5.8968</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" s="6" customFormat="1" spans="1:12">
       <c r="A15" s="11">
-        <v>500002</v>
+        <v>500001</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="13">
-        <v>35</v>
+        <v>12.61</v>
       </c>
       <c r="D15" s="6">
+        <f t="shared" si="1"/>
+        <v>12.61</v>
+      </c>
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="array" ref="F15">MMULT(C15,0.34)</f>
-        <v>11.9</v>
+        <v>4.5396</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" s="6" customFormat="1" spans="1:12">
       <c r="A16" s="11">
-        <v>500003</v>
+        <v>500002</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="13">
-        <v>16.4</v>
+        <v>35.62</v>
       </c>
       <c r="D16" s="6">
+        <f t="shared" si="1"/>
+        <v>35.62</v>
+      </c>
+      <c r="F16" s="6">
         <f t="shared" si="0"/>
-        <v>16.4</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="array" ref="F16">MMULT(C16,0.34)</f>
-        <v>5.576</v>
+        <v>12.8232</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" s="6" customFormat="1" spans="1:12">
       <c r="A17" s="11">
-        <v>500004</v>
+        <v>500003</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="13">
-        <v>20.8</v>
+        <v>9.36</v>
       </c>
       <c r="D17" s="6">
+        <f t="shared" si="1"/>
+        <v>9.36</v>
+      </c>
+      <c r="F17" s="6">
         <f t="shared" si="0"/>
-        <v>20.8</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="array" ref="F17">MMULT(C17,0.34)</f>
-        <v>7.072</v>
+        <v>3.3696</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" s="7" customFormat="1" spans="1:12">
-      <c r="A18" s="18">
+      <c r="L17" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" s="6" customFormat="1" spans="1:12">
+      <c r="A18" s="11">
+        <v>500004</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="13">
+        <v>9.386</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="1"/>
+        <v>9.386</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>3.37896</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:12">
+      <c r="A19" s="11">
+        <v>500005</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="13">
+        <v>26.39</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="1"/>
+        <v>26.39</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>9.5004</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" s="7" customFormat="1" spans="1:12">
+      <c r="A20" s="17">
         <v>510001</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="19">
-        <v>11.2</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>11.2</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="array" ref="F18">MMULT(C18,0.34)</f>
-        <v>3.808</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" s="7" customFormat="1" spans="1:12">
-      <c r="A19" s="18">
-        <v>510002</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="19">
-        <v>32</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="array" ref="F19">MMULT(C19,0.34)</f>
-        <v>10.88</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" s="7" customFormat="1" spans="1:12">
-      <c r="A20" s="18">
-        <v>510003</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="19">
-        <v>33</v>
+      <c r="C20" s="18">
+        <v>8.97</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" ref="D20:D25" si="1">SUM(C20)</f>
-        <v>33</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="array" ref="F20">MMULT(C20,0.34)</f>
-        <v>11.22</v>
+        <f t="shared" ref="D20:D30" si="2">SUM(C20)</f>
+        <v>8.97</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>3.2292</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="L20" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" s="7" customFormat="1" spans="1:12">
-      <c r="A21" s="18">
-        <v>510004</v>
+      <c r="A21" s="17">
+        <v>510002</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="19">
-        <v>6</v>
+      <c r="C21" s="18">
+        <v>25.48</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="array" ref="F21">MMULT(C21,0.34)</f>
-        <v>2.04</v>
+        <f t="shared" si="2"/>
+        <v>25.48</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>9.1728</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L21" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" s="6" customFormat="1" spans="1:12">
-      <c r="A22" s="11">
-        <v>520001</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="L21" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" s="7" customFormat="1" spans="1:12">
+      <c r="A22" s="17">
+        <v>510003</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="13">
-        <v>33</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" si="1"/>
-        <v>33</v>
+      <c r="C22" s="18">
+        <v>42.9</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="2"/>
+        <v>42.9</v>
       </c>
       <c r="F22" s="6">
-        <f t="array" ref="F22">MMULT(C22,0.34)</f>
-        <v>11.22</v>
-      </c>
-      <c r="J22" s="6" t="s">
+        <f t="shared" si="0"/>
+        <v>15.444</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" s="6" customFormat="1" spans="1:12">
-      <c r="A23" s="11">
-        <v>520002</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="L22" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" s="7" customFormat="1" spans="1:12">
+      <c r="A23" s="17">
+        <v>510004</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="13">
-        <v>21</v>
-      </c>
-      <c r="D23" s="6">
-        <f t="shared" si="1"/>
-        <v>21</v>
+      <c r="C23" s="18">
+        <v>9.49</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="2"/>
+        <v>9.49</v>
       </c>
       <c r="F23" s="6">
-        <f t="array" ref="F23">MMULT(C23,0.34)</f>
-        <v>7.14</v>
-      </c>
-      <c r="J23" s="6" t="s">
+        <f t="shared" si="0"/>
+        <v>3.4164</v>
+      </c>
+      <c r="G23" s="7">
+        <v>100</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L23" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" s="6" customFormat="1" spans="1:12">
-      <c r="A24" s="11">
-        <v>520003</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="L23" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" s="7" customFormat="1" spans="1:12">
+      <c r="A24" s="17">
+        <v>510005</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="13">
-        <v>11.5</v>
-      </c>
-      <c r="D24" s="6">
-        <f t="shared" si="1"/>
-        <v>11.5</v>
+      <c r="C24" s="18">
+        <v>22.1</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="2"/>
+        <v>22.1</v>
       </c>
       <c r="F24" s="6">
-        <f t="array" ref="F24">MMULT(C24,0.34)</f>
-        <v>3.91</v>
-      </c>
-      <c r="J24" s="6" t="s">
+        <f t="shared" si="0"/>
+        <v>7.956</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="31" t="s">
+      <c r="L24" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" s="6" customFormat="1" spans="1:12">
       <c r="A25" s="11">
-        <v>520004</v>
+        <v>520001</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="13">
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>19.5</v>
       </c>
       <c r="F25" s="6">
-        <f t="array" ref="F25">MMULT(C25,0.34)</f>
-        <v>3.4</v>
+        <f t="shared" si="0"/>
+        <v>7.02</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="31" t="s">
+      <c r="L25" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:12">
       <c r="A26" s="11">
-        <v>520005</v>
+        <v>520002</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="13">
-        <v>13</v>
+        <v>21.58</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" ref="D26:D49" si="2">SUM(C26)</f>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>21.58</v>
       </c>
       <c r="F26" s="6">
-        <f t="array" ref="F26">MMULT(C26,0.34)</f>
-        <v>4.42</v>
+        <f t="shared" si="0"/>
+        <v>7.7688</v>
       </c>
       <c r="J26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="L26" s="31" t="s">
+      <c r="L26" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:12">
       <c r="A27" s="11">
-        <v>520006</v>
+        <v>520003</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="13">
-        <v>13</v>
+        <v>3.64</v>
       </c>
       <c r="D27" s="6">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>3.64</v>
       </c>
       <c r="F27" s="6">
-        <f t="array" ref="F27">MMULT(C27,0.34)</f>
-        <v>4.42</v>
+        <f t="shared" si="0"/>
+        <v>1.3104</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L27" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" s="7" customFormat="1" spans="1:12">
-      <c r="A28" s="18">
+      <c r="L27" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" s="6" customFormat="1" spans="1:12">
+      <c r="A28" s="11">
+        <v>520004</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="13">
+        <v>5.46</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="2"/>
+        <v>5.46</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9656</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" s="6" customFormat="1" spans="1:12">
+      <c r="A29" s="11">
+        <v>520005</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="13">
+        <v>5.46</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="2"/>
+        <v>5.46</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9656</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" s="7" customFormat="1" spans="1:12">
+      <c r="A30" s="17">
         <v>530001</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="19">
-        <v>19.2</v>
-      </c>
-      <c r="D28" s="17">
-        <f t="shared" si="2"/>
-        <v>19.2</v>
-      </c>
-      <c r="F28" s="7">
-        <f t="array" ref="F28">MMULT(C28,0.34)</f>
-        <v>6.528</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L28" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" s="7" customFormat="1" spans="1:12">
-      <c r="A29" s="18">
-        <v>530002</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="19">
-        <v>36</v>
-      </c>
-      <c r="D29" s="17">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="F29" s="7">
-        <f t="array" ref="F29">MMULT(C29,0.34)</f>
-        <v>12.24</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L29" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" s="7" customFormat="1" spans="1:12">
-      <c r="A30" s="18">
-        <v>530003</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="19">
-        <v>58</v>
-      </c>
-      <c r="D30" s="17">
+      <c r="C30" s="18">
+        <v>32.5</v>
+      </c>
+      <c r="D30" s="7">
         <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="F30" s="7">
-        <f t="array" ref="F30">MMULT(C30,0.34)</f>
-        <v>19.72</v>
+        <v>32.5</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="0"/>
+        <v>11.7</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L30" s="33" t="s">
+      <c r="L30" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" s="7" customFormat="1" spans="1:12">
-      <c r="A31" s="18">
-        <v>530004</v>
+      <c r="A31" s="17">
+        <v>530002</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="19">
-        <v>42</v>
-      </c>
-      <c r="D31" s="17">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="F31" s="7">
-        <f t="array" ref="F31">MMULT(C31,0.34)</f>
-        <v>14.28</v>
+      <c r="C31" s="18">
+        <v>54.6</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" ref="D31:D38" si="3">SUM(C31)</f>
+        <v>54.6</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="0"/>
+        <v>19.656</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L31" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" s="6" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A32" s="11">
+      <c r="L31" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" s="7" customFormat="1" spans="1:12">
+      <c r="A32" s="17">
+        <v>530003</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="18">
+        <v>52.26</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="3"/>
+        <v>52.26</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="0"/>
+        <v>18.8136</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L32" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" s="7" customFormat="1" spans="1:12">
+      <c r="A33" s="17">
+        <v>530004</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="18">
+        <v>35.1</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="3"/>
+        <v>35.1</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="0"/>
+        <v>12.636</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" s="6" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A34" s="11">
         <v>540001</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="13">
-        <v>26</v>
-      </c>
-      <c r="D32" s="6">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="F32" s="6">
-        <f t="array" ref="F32">MMULT(C32,0.34)</f>
-        <v>8.84</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L32" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" s="6" customFormat="1" spans="1:12">
-      <c r="A33" s="11">
-        <v>540002</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="13">
-        <v>20</v>
-      </c>
-      <c r="D33" s="6">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="array" ref="F33">MMULT(C33,0.34)</f>
-        <v>6.8</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L33" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" s="6" customFormat="1" spans="1:12">
-      <c r="A34" s="11">
-        <v>540003</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C34" s="13">
-        <v>44</v>
+        <v>18.2</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="2"/>
-        <v>44</v>
+        <f t="shared" si="3"/>
+        <v>18.2</v>
       </c>
       <c r="F34" s="6">
-        <f t="array" ref="F34">MMULT(C34,0.34)</f>
-        <v>14.96</v>
+        <f t="shared" si="0"/>
+        <v>6.552</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="L34" s="31" t="s">
+      <c r="L34" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" s="6" customFormat="1" spans="1:12">
       <c r="A35" s="11">
-        <v>540004</v>
+        <v>540002</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C35" s="13">
-        <v>22</v>
+        <v>14.3</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>14.3</v>
       </c>
       <c r="F35" s="6">
-        <f t="array" ref="F35">MMULT(C35,0.34)</f>
-        <v>7.48</v>
+        <f t="shared" si="0"/>
+        <v>5.148</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="L35" s="31" t="s">
+      <c r="L35" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" s="6" customFormat="1" spans="1:12">
       <c r="A36" s="11">
-        <v>540005</v>
+        <v>540003</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C36" s="13">
-        <v>14</v>
+        <v>42.9</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>42.9</v>
       </c>
       <c r="F36" s="6">
-        <f t="array" ref="F36">MMULT(C36,0.34)</f>
-        <v>4.76</v>
+        <f t="shared" si="0"/>
+        <v>15.444</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="L36" s="31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" s="7" customFormat="1" spans="1:12">
-      <c r="A37" s="18">
+      <c r="L36" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" s="6" customFormat="1" spans="1:12">
+      <c r="A37" s="11">
+        <v>540004</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="13">
+        <v>27.3</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" si="3"/>
+        <v>27.3</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="0"/>
+        <v>9.828</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L37" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" s="6" customFormat="1" spans="1:12">
+      <c r="A38" s="11">
+        <v>540005</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="13">
+        <v>10.4</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" si="3"/>
+        <v>10.4</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="0"/>
+        <v>3.744</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L38" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" s="7" customFormat="1" spans="1:12">
+      <c r="A39" s="17">
         <v>550001</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="19">
-        <v>62</v>
-      </c>
-      <c r="D37" s="17">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="F37" s="7">
-        <f t="array" ref="F37">MMULT(C37,0.34)</f>
-        <v>21.08</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L37" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" s="7" customFormat="1" spans="1:12">
-      <c r="A38" s="18">
-        <v>550002</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="19">
-        <v>14</v>
-      </c>
-      <c r="D38" s="17">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="F38" s="7">
-        <f t="array" ref="F38">MMULT(C38,0.34)</f>
-        <v>4.76</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L38" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" s="7" customFormat="1" spans="1:12">
-      <c r="A39" s="18">
-        <v>550003</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="19">
-        <v>19.8</v>
-      </c>
-      <c r="D39" s="17">
-        <f t="shared" si="2"/>
-        <v>19.8</v>
-      </c>
-      <c r="F39" s="7">
-        <f t="array" ref="F39">MMULT(C39,0.34)</f>
-        <v>6.732</v>
+      <c r="C39" s="18">
+        <v>19.5</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" ref="D39:D43" si="4">SUM(C39)</f>
+        <v>19.5</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="0"/>
+        <v>7.02</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="L39" s="33" t="s">
+      <c r="L39" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="40" s="7" customFormat="1" spans="1:12">
-      <c r="A40" s="18">
-        <v>550004</v>
+      <c r="A40" s="17">
+        <v>550002</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="19">
-        <v>11</v>
-      </c>
-      <c r="D40" s="17">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="F40" s="7">
-        <f t="array" ref="F40">MMULT(C40,0.34)</f>
-        <v>3.74</v>
+      <c r="C40" s="18">
+        <v>24.31</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="4"/>
+        <v>24.31</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="0"/>
+        <v>8.7516</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L40" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:12">
-      <c r="A41" s="20">
+      <c r="L40" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" s="7" customFormat="1" spans="1:12">
+      <c r="A41" s="17">
+        <v>550003</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="18">
+        <v>14.3</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="4"/>
+        <v>14.3</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="0"/>
+        <v>5.148</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L41" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" s="7" customFormat="1" spans="1:12">
+      <c r="A42" s="17">
+        <v>550004</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="18">
+        <v>33.41</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="4"/>
+        <v>33.41</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" si="0"/>
+        <v>12.0276</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L42" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" s="7" customFormat="1" spans="1:12">
+      <c r="A43" s="17">
+        <v>550005</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="18">
+        <v>16.5</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="4"/>
+        <v>16.5</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="0"/>
+        <v>5.94</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L43" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" s="6" customFormat="1" spans="1:12">
+      <c r="A44" s="11">
         <v>560001</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="22">
-        <v>33</v>
-      </c>
-      <c r="D41" s="17">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21">
-        <f t="array" ref="F41">MMULT(C41,0.34)</f>
-        <v>11.22</v>
-      </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="K41" s="21"/>
-      <c r="L41" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:12">
-      <c r="A42" s="20">
+      <c r="B44" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="13">
+        <v>65</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" ref="D44:D54" si="5">SUM(C44)</f>
+        <v>65</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="0"/>
+        <v>23.4</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L44" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" s="6" customFormat="1" spans="1:12">
+      <c r="A45" s="11">
         <v>560002</v>
       </c>
-      <c r="B42" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="22">
-        <v>10</v>
-      </c>
-      <c r="D42" s="17">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21">
-        <f t="array" ref="F42">MMULT(C42,0.34)</f>
-        <v>3.4</v>
-      </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="K42" s="21"/>
-      <c r="L42" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:12">
-      <c r="A43" s="20">
+      <c r="B45" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="13">
+        <v>17.29</v>
+      </c>
+      <c r="D45" s="6">
+        <f t="shared" si="5"/>
+        <v>17.29</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="0"/>
+        <v>6.2244</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L45" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" s="6" customFormat="1" spans="1:12">
+      <c r="A46" s="11">
         <v>560003</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="22">
-        <v>16</v>
-      </c>
-      <c r="D43" s="17">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21">
-        <f t="array" ref="F43">MMULT(C43,0.34)</f>
-        <v>5.44</v>
-      </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="K43" s="21"/>
-      <c r="L43" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:12">
-      <c r="A44" s="20">
+      <c r="B46" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="13">
+        <v>14.56</v>
+      </c>
+      <c r="D46" s="6">
+        <f t="shared" si="5"/>
+        <v>14.56</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="0"/>
+        <v>5.2416</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="L46" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" s="6" customFormat="1" spans="1:12">
+      <c r="A47" s="11">
         <v>560004</v>
       </c>
-      <c r="B44" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="22">
-        <v>14</v>
-      </c>
-      <c r="D44" s="17">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21">
-        <f t="array" ref="F44">MMULT(C44,0.34)</f>
-        <v>4.76</v>
-      </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="K44" s="21"/>
-      <c r="L44" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" s="7" customFormat="1" spans="1:12">
-      <c r="A45" s="18">
+      <c r="B47" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="D47" s="6">
+        <f t="shared" si="5"/>
+        <v>19.5</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" si="0"/>
+        <v>7.02</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L47" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" s="6" customFormat="1" spans="1:12">
+      <c r="A48" s="11">
+        <v>560005</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="13">
+        <v>31.2</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" si="5"/>
+        <v>31.2</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="0"/>
+        <v>11.232</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L48" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" s="7" customFormat="1" spans="1:12">
+      <c r="A49" s="17">
         <v>570001</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="19">
+      <c r="B49" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="18">
+        <v>66.3</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" si="5"/>
+        <v>66.3</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" ref="F49:F54" si="6">MMULT(C49,0.36)</f>
+        <v>23.868</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L49" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" s="7" customFormat="1" spans="1:12">
+      <c r="A50" s="17">
+        <v>570002</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="18">
+        <v>9.88</v>
+      </c>
+      <c r="D50" s="7">
+        <f t="shared" si="5"/>
+        <v>9.88</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" si="6"/>
+        <v>3.5568</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L50" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" s="7" customFormat="1" spans="1:12">
+      <c r="A51" s="17">
+        <v>570003</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="18">
+        <v>9.75</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" si="5"/>
+        <v>9.75</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" si="6"/>
+        <v>3.51</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L51" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" s="7" customFormat="1" spans="1:12">
+      <c r="A52" s="17">
+        <v>570004</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="18">
+        <v>13</v>
+      </c>
+      <c r="D52" s="7">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="F52" s="6">
+        <f t="shared" si="6"/>
+        <v>4.68</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L52" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" s="7" customFormat="1" spans="1:12">
+      <c r="A53" s="17">
+        <v>570005</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="18">
+        <v>10.4</v>
+      </c>
+      <c r="D53" s="7">
+        <f t="shared" si="5"/>
+        <v>10.4</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="6"/>
+        <v>3.744</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L53" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" ht="18" customHeight="1" spans="1:12">
+      <c r="A54" s="19">
+        <v>1</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="20">
+        <v>200</v>
+      </c>
+      <c r="D54" s="21">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="E54" s="19">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="G54" s="19">
+        <v>1</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="K54" s="19"/>
+      <c r="L54" s="31"/>
+    </row>
+    <row r="55" ht="18" customHeight="1" spans="1:12">
+      <c r="A55" s="19">
+        <v>2</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="20">
+        <v>500</v>
+      </c>
+      <c r="D55" s="21">
+        <f t="shared" ref="D55:D71" si="7">SUM(C55)</f>
+        <v>500</v>
+      </c>
+      <c r="E55" s="19">
+        <v>1</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" ref="F55:F71" si="8">MMULT(C55,0.36)</f>
+        <v>180</v>
+      </c>
+      <c r="G55" s="19">
+        <v>1</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="K55" s="19"/>
+      <c r="L55" s="31"/>
+    </row>
+    <row r="56" ht="21" customHeight="1" spans="1:12">
+      <c r="A56" s="19">
+        <v>3</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="20">
+        <v>117</v>
+      </c>
+      <c r="D56" s="21">
+        <f t="shared" si="7"/>
+        <v>117</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="6">
+        <f t="shared" si="8"/>
+        <v>42.12</v>
+      </c>
+      <c r="G56" s="19">
+        <v>1</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="K56" s="19"/>
+      <c r="L56" s="31"/>
+    </row>
+    <row r="57" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A57" s="19">
+        <v>4</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="20">
+        <v>54.6</v>
+      </c>
+      <c r="D57" s="21">
+        <f t="shared" si="7"/>
+        <v>54.6</v>
+      </c>
+      <c r="E57" s="19"/>
+      <c r="F57" s="6">
+        <f t="shared" si="8"/>
+        <v>19.656</v>
+      </c>
+      <c r="G57" s="19">
+        <v>1</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="K57" s="19"/>
+      <c r="L57" s="31"/>
+    </row>
+    <row r="58" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A58" s="19">
+        <v>5</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="20">
         <v>26</v>
       </c>
-      <c r="D45" s="7">
-        <f t="shared" si="2"/>
+      <c r="D58" s="21">
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="F45" s="7">
-        <f t="array" ref="F45">MMULT(C45,0.34)</f>
-        <v>8.84</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L45" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" s="7" customFormat="1" spans="1:12">
-      <c r="A46" s="18">
-        <v>570002</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="19">
-        <v>12</v>
-      </c>
-      <c r="D46" s="7">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="F46" s="7">
-        <f t="array" ref="F46">MMULT(C46,0.34)</f>
-        <v>4.08</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L46" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" s="7" customFormat="1" spans="1:12">
-      <c r="A47" s="18">
-        <v>570003</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="19">
-        <v>11.6</v>
-      </c>
-      <c r="D47" s="7">
-        <f t="shared" si="2"/>
-        <v>11.6</v>
-      </c>
-      <c r="F47" s="7">
-        <f t="array" ref="F47">MMULT(C47,0.34)</f>
-        <v>3.944</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L47" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" s="7" customFormat="1" spans="1:12">
-      <c r="A48" s="18">
-        <v>570004</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="19">
-        <v>20</v>
-      </c>
-      <c r="D48" s="7">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F48" s="7">
-        <f t="array" ref="F48">MMULT(C48,0.34)</f>
-        <v>6.8</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L48" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" s="7" customFormat="1" spans="1:12">
-      <c r="A49" s="18">
-        <v>570005</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="19">
-        <v>18</v>
-      </c>
-      <c r="D49" s="7">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="F49" s="7">
-        <f t="array" ref="F49">MMULT(C49,0.34)</f>
-        <v>6.12</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L49" s="33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" ht="18" customHeight="1" spans="1:12">
-      <c r="A50" s="23">
+      <c r="E58" s="19"/>
+      <c r="F58" s="6">
+        <f t="shared" si="8"/>
+        <v>9.36</v>
+      </c>
+      <c r="G58" s="19">
+        <v>1</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="K58" s="19"/>
+      <c r="L58" s="31"/>
+    </row>
+    <row r="59" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A59" s="19">
+        <v>6</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="20">
+        <v>780</v>
+      </c>
+      <c r="D59" s="21">
+        <f t="shared" si="7"/>
+        <v>780</v>
+      </c>
+      <c r="E59" s="19">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" si="8"/>
+        <v>280.8</v>
+      </c>
+      <c r="G59" s="19">
+        <v>1</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="K59" s="19"/>
+      <c r="L59" s="31"/>
+    </row>
+    <row r="60" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A60" s="19">
+        <v>7</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="20">
+        <v>390</v>
+      </c>
+      <c r="D60" s="21">
+        <f t="shared" si="7"/>
+        <v>390</v>
+      </c>
+      <c r="E60" s="19"/>
+      <c r="F60" s="6">
+        <f t="shared" si="8"/>
+        <v>140.4</v>
+      </c>
+      <c r="G60" s="19">
+        <v>1</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K60" s="19"/>
+      <c r="L60" s="31"/>
+    </row>
+    <row r="61" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A61" s="19">
+        <v>8</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="20">
+        <v>234</v>
+      </c>
+      <c r="D61" s="21">
+        <f t="shared" si="7"/>
+        <v>234</v>
+      </c>
+      <c r="E61" s="19">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6">
+        <f t="shared" si="8"/>
+        <v>84.24</v>
+      </c>
+      <c r="G61" s="19">
+        <v>1</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K61" s="19"/>
+      <c r="L61" s="31"/>
+    </row>
+    <row r="62" customFormat="1" ht="21" customHeight="1" spans="1:12">
+      <c r="A62" s="19">
+        <v>9</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="20">
+        <v>1820</v>
+      </c>
+      <c r="D62" s="21">
+        <f t="shared" si="7"/>
+        <v>1820</v>
+      </c>
+      <c r="E62" s="19">
+        <v>1</v>
+      </c>
+      <c r="F62" s="6">
+        <f t="shared" si="8"/>
+        <v>655.2</v>
+      </c>
+      <c r="G62" s="19">
+        <v>1</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="K62" s="19"/>
+      <c r="L62" s="31"/>
+    </row>
+    <row r="63" s="8" customFormat="1" spans="1:12">
+      <c r="A63" s="8">
+        <v>1001</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="23">
+        <v>182</v>
+      </c>
+      <c r="D63" s="21">
+        <f t="shared" si="7"/>
+        <v>182</v>
+      </c>
+      <c r="F63" s="6">
+        <f t="shared" si="8"/>
+        <v>65.52</v>
+      </c>
+      <c r="G63" s="8">
+        <v>5</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="L63" s="32"/>
+    </row>
+    <row r="64" s="8" customFormat="1" spans="1:12">
+      <c r="A64" s="8">
+        <v>1002</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="23">
+        <v>52</v>
+      </c>
+      <c r="D64" s="21">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="F64" s="6">
+        <f t="shared" si="8"/>
+        <v>18.72</v>
+      </c>
+      <c r="G64" s="8">
+        <v>5</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="L64" s="32"/>
+    </row>
+    <row r="65" s="8" customFormat="1" spans="1:12">
+      <c r="A65" s="8">
+        <v>1003</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="23">
+        <v>312</v>
+      </c>
+      <c r="D65" s="21">
+        <f t="shared" si="7"/>
+        <v>312</v>
+      </c>
+      <c r="F65" s="6">
+        <f t="shared" si="8"/>
+        <v>112.32</v>
+      </c>
+      <c r="G65" s="8">
+        <v>5</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="L65" s="32"/>
+    </row>
+    <row r="66" s="8" customFormat="1" spans="1:12">
+      <c r="A66" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="23">
+        <v>46.8</v>
+      </c>
+      <c r="D66" s="21">
+        <f t="shared" si="7"/>
+        <v>46.8</v>
+      </c>
+      <c r="F66" s="6">
+        <f t="shared" si="8"/>
+        <v>16.848</v>
+      </c>
+      <c r="G66" s="8">
+        <v>5</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L66" s="32"/>
+    </row>
+    <row r="67" s="8" customFormat="1" spans="1:12">
+      <c r="A67" s="8">
+        <v>1005</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" s="23">
+        <v>46.8</v>
+      </c>
+      <c r="D67" s="21">
+        <f t="shared" si="7"/>
+        <v>46.8</v>
+      </c>
+      <c r="F67" s="6">
+        <f t="shared" si="8"/>
+        <v>16.848</v>
+      </c>
+      <c r="G67" s="8">
+        <v>5</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L67" s="32"/>
+    </row>
+    <row r="68" s="7" customFormat="1" spans="1:12">
+      <c r="A68" s="17">
+        <v>970001</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="18">
+        <v>158</v>
+      </c>
+      <c r="D68" s="7">
+        <f t="shared" si="7"/>
+        <v>158</v>
+      </c>
+      <c r="F68" s="7">
+        <f t="shared" si="8"/>
+        <v>56.88</v>
+      </c>
+      <c r="G68" s="7">
         <v>2</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="24">
-        <v>120</v>
-      </c>
-      <c r="D50" s="17">
-        <f t="shared" ref="D49:D62" si="3">SUM(C50)</f>
-        <v>120</v>
-      </c>
-      <c r="E50" s="23">
-        <v>1</v>
-      </c>
-      <c r="F50" s="23">
-        <f t="array" ref="F50">MMULT(C50,0.34)</f>
-        <v>40.8</v>
-      </c>
-      <c r="G50" s="23">
-        <v>1</v>
-      </c>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="K50" s="23"/>
-      <c r="L50" s="35"/>
-    </row>
-    <row r="51" ht="21" customHeight="1" spans="1:12">
-      <c r="A51" s="23">
-        <v>3</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="24">
-        <v>90</v>
-      </c>
-      <c r="D51" s="17">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23">
-        <f t="array" ref="F51">MMULT(C51,0.34)</f>
-        <v>30.6</v>
-      </c>
-      <c r="G51" s="23">
-        <v>1</v>
-      </c>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="K51" s="23"/>
-      <c r="L51" s="35"/>
-    </row>
-    <row r="52" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A52" s="23">
-        <v>4</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="24">
-        <v>42</v>
-      </c>
-      <c r="D52" s="17">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23">
-        <f t="array" ref="F52">MMULT(C52,0.34)</f>
-        <v>14.28</v>
-      </c>
-      <c r="G52" s="23">
-        <v>1</v>
-      </c>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="K52" s="23"/>
-      <c r="L52" s="35"/>
-    </row>
-    <row r="53" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A53" s="23">
-        <v>5</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="24">
-        <v>20</v>
-      </c>
-      <c r="D53" s="17">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23">
-        <f t="array" ref="F53">MMULT(C53,0.34)</f>
-        <v>6.8</v>
-      </c>
-      <c r="G53" s="23">
-        <v>1</v>
-      </c>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="K53" s="23"/>
-      <c r="L53" s="35"/>
-    </row>
-    <row r="54" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A54" s="23">
-        <v>6</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="24">
-        <v>600</v>
-      </c>
-      <c r="D54" s="17">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="E54" s="23">
-        <v>1</v>
-      </c>
-      <c r="F54" s="23">
-        <f t="array" ref="F54">MMULT(C54,0.34)</f>
-        <v>204</v>
-      </c>
-      <c r="G54" s="23">
-        <v>1</v>
-      </c>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="K54" s="23"/>
-      <c r="L54" s="35"/>
-    </row>
-    <row r="55" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A55" s="23">
-        <v>7</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="24">
-        <v>300</v>
-      </c>
-      <c r="D55" s="17">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23">
-        <f t="array" ref="F55">MMULT(C55,0.34)</f>
-        <v>102</v>
-      </c>
-      <c r="G55" s="23">
-        <v>1</v>
-      </c>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="K55" s="23"/>
-      <c r="L55" s="35"/>
-    </row>
-    <row r="56" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A56" s="23">
-        <v>8</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="24">
-        <v>180</v>
-      </c>
-      <c r="D56" s="17">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="E56" s="23">
-        <v>1</v>
-      </c>
-      <c r="F56" s="23">
-        <f t="array" ref="F56">MMULT(C56,0.34)</f>
-        <v>61.2</v>
-      </c>
-      <c r="G56" s="23">
-        <v>1</v>
-      </c>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="K56" s="23"/>
-      <c r="L56" s="35"/>
-    </row>
-    <row r="57" customFormat="1" ht="21" customHeight="1" spans="1:12">
-      <c r="A57" s="23">
-        <v>9</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="24">
-        <v>1400</v>
-      </c>
-      <c r="D57" s="17">
-        <f t="shared" si="3"/>
-        <v>1400</v>
-      </c>
-      <c r="E57" s="23">
-        <v>1</v>
-      </c>
-      <c r="F57" s="23">
-        <f t="array" ref="F57">MMULT(C57,0.34)</f>
-        <v>476</v>
-      </c>
-      <c r="G57" s="23">
-        <v>1</v>
-      </c>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="K57" s="23"/>
-      <c r="L57" s="35"/>
-    </row>
-    <row r="58" s="8" customFormat="1" spans="1:12">
-      <c r="A58" s="8">
-        <v>1001</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="26">
-        <v>140</v>
-      </c>
-      <c r="D58" s="17">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="F58" s="8">
-        <f t="array" ref="F58">MMULT(C58,0.34)</f>
-        <v>47.6</v>
-      </c>
-      <c r="G58" s="8">
-        <v>5</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="L58" s="36"/>
-    </row>
-    <row r="59" s="8" customFormat="1" spans="1:12">
-      <c r="A59" s="8">
-        <v>1002</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" s="26">
-        <v>40</v>
-      </c>
-      <c r="D59" s="17">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="F59" s="8">
-        <f t="array" ref="F59">MMULT(C59,0.34)</f>
-        <v>13.6</v>
-      </c>
-      <c r="G59" s="8">
-        <v>5</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L59" s="36"/>
-    </row>
-    <row r="60" s="8" customFormat="1" spans="1:12">
-      <c r="A60" s="8">
-        <v>1003</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" s="26">
-        <v>240</v>
-      </c>
-      <c r="D60" s="17">
-        <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-      <c r="F60" s="8">
-        <f t="array" ref="F60">MMULT(C60,0.34)</f>
-        <v>81.6</v>
-      </c>
-      <c r="G60" s="8">
-        <v>5</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="L60" s="36"/>
-    </row>
-    <row r="61" s="8" customFormat="1" spans="1:12">
-      <c r="A61" s="8">
-        <v>1004</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C61" s="26">
-        <v>36</v>
-      </c>
-      <c r="D61" s="17">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="F61" s="8">
-        <f t="array" ref="F61">MMULT(C61,0.34)</f>
-        <v>12.24</v>
-      </c>
-      <c r="G61" s="8">
-        <v>5</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="L61" s="36"/>
-    </row>
-    <row r="62" s="8" customFormat="1" spans="1:12">
-      <c r="A62" s="8">
-        <v>1005</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" s="26">
-        <v>36</v>
-      </c>
-      <c r="D62" s="17">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="F62" s="8">
-        <f t="array" ref="F62">MMULT(C62,0.34)</f>
-        <v>12.24</v>
-      </c>
-      <c r="G62" s="8">
-        <v>5</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="L62" s="36"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="37"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="37"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="37"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="37"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="37"/>
+      <c r="J68" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L68" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" s="7" customFormat="1" spans="1:12">
+      <c r="A69" s="17">
+        <v>970002</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="18">
+        <v>56</v>
+      </c>
+      <c r="D69" s="7">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="F69" s="7">
+        <f t="shared" si="8"/>
+        <v>20.16</v>
+      </c>
+      <c r="G69" s="7">
+        <v>2</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L69" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" s="7" customFormat="1" spans="1:12">
+      <c r="A70" s="17">
+        <v>970003</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="18">
+        <v>88</v>
+      </c>
+      <c r="D70" s="7">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="F70" s="7">
+        <f t="shared" si="8"/>
+        <v>31.68</v>
+      </c>
+      <c r="G70" s="7">
+        <v>2</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L70" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" s="7" customFormat="1" spans="1:12">
+      <c r="A71" s="17">
+        <v>970004</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="18">
+        <v>99</v>
+      </c>
+      <c r="D71" s="7">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="F71" s="7">
+        <f t="shared" si="8"/>
+        <v>35.64</v>
+      </c>
+      <c r="G71" s="7">
+        <v>2</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L71" s="30" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="37"/>
+      <c r="A72" s="33"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="37"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="37"/>
+      <c r="A73" s="33"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="37"/>
-    </row>
-    <row r="76" s="9" customFormat="1" spans="1:12">
-      <c r="A76" s="38"/>
-      <c r="D76"/>
-      <c r="F76"/>
-      <c r="L76" s="39"/>
-    </row>
-    <row r="77" s="9" customFormat="1" spans="1:12">
-      <c r="A77" s="38"/>
-      <c r="D77"/>
-      <c r="F77"/>
-      <c r="L77" s="39"/>
-    </row>
-    <row r="78" s="9" customFormat="1" spans="1:12">
-      <c r="A78" s="38"/>
-      <c r="D78"/>
-      <c r="F78"/>
-      <c r="L78" s="39"/>
+      <c r="A75" s="33"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="33"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="33"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="33"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="37"/>
+      <c r="A79" s="33"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="37"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="37"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="37"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="37"/>
+      <c r="A80" s="33"/>
+    </row>
+    <row r="81" s="9" customFormat="1" spans="1:12">
+      <c r="A81" s="34"/>
+      <c r="D81"/>
+      <c r="F81"/>
+      <c r="L81" s="35"/>
+    </row>
+    <row r="82" s="9" customFormat="1" spans="1:12">
+      <c r="A82" s="34"/>
+      <c r="D82"/>
+      <c r="F82"/>
+      <c r="L82" s="35"/>
+    </row>
+    <row r="83" s="9" customFormat="1" spans="1:12">
+      <c r="A83" s="34"/>
+      <c r="D83"/>
+      <c r="F83"/>
+      <c r="L83" s="35"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="37"/>
+      <c r="A84" s="33"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="37"/>
+      <c r="A85" s="33"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="37"/>
+      <c r="A86" s="33"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="37"/>
+      <c r="A87" s="33"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="37"/>
+      <c r="A88" s="33"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="37"/>
+      <c r="A89" s="33"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="37"/>
+      <c r="A90" s="33"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="37"/>
+      <c r="A91" s="33"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="37"/>
+      <c r="A92" s="33"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="37"/>
+      <c r="A93" s="33"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="37"/>
+      <c r="A94" s="33"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="37"/>
+      <c r="A95" s="33"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="37"/>
+      <c r="A96" s="33"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="37"/>
+      <c r="A97" s="33"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="37"/>
+      <c r="A98" s="33"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="37"/>
+      <c r="A99" s="33"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="37"/>
+      <c r="A100" s="33"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="37"/>
+      <c r="A101" s="33"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="37"/>
+      <c r="A102" s="33"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="37"/>
+      <c r="A103" s="33"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="37"/>
+      <c r="A104" s="33"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="37"/>
+      <c r="A105" s="33"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="37"/>
+      <c r="A106" s="33"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="37"/>
+      <c r="A107" s="33"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="37"/>
+      <c r="A108" s="33"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="37"/>
+      <c r="A109" s="33"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="37"/>
+      <c r="A110" s="33"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="37"/>
+      <c r="A111" s="33"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="37"/>
+      <c r="A112" s="33"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="37"/>
+      <c r="A113" s="33"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="37"/>
+      <c r="A114" s="33"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="37"/>
+      <c r="A115" s="33"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="37"/>
+      <c r="A116" s="33"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="37"/>
+      <c r="A117" s="33"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="37"/>
-    </row>
-    <row r="119" ht="14.1" customHeight="1" spans="1:13">
-      <c r="A119" s="37"/>
-      <c r="M119" s="40"/>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="37"/>
-      <c r="M120" s="40"/>
-    </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="37"/>
-      <c r="M121" s="40"/>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="37"/>
-      <c r="H122" s="37"/>
-      <c r="M122" s="40"/>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="37"/>
-      <c r="H123" s="37"/>
-      <c r="M123" s="40"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="37"/>
-      <c r="H124" s="37"/>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="37"/>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="37"/>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="37"/>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="37"/>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="37"/>
+      <c r="A118" s="33"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="33"/>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="33"/>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="33"/>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="33"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="33"/>
+    </row>
+    <row r="124" ht="14.1" customHeight="1" spans="1:13">
+      <c r="A124" s="33"/>
+      <c r="M124" s="36"/>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="33"/>
+      <c r="M125" s="36"/>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="33"/>
+      <c r="M126" s="36"/>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="33"/>
+      <c r="H127" s="33"/>
+      <c r="M127" s="36"/>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="33"/>
+      <c r="H128" s="33"/>
+      <c r="M128" s="36"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="33"/>
+      <c r="H129" s="33"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="37"/>
+      <c r="A130" s="33"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="37"/>
+      <c r="A131" s="33"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="37"/>
+      <c r="A132" s="33"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="37"/>
+      <c r="A133" s="33"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="37"/>
+      <c r="A134" s="33"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="37"/>
+      <c r="A135" s="33"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="37"/>
+      <c r="A136" s="33"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="37"/>
+      <c r="A137" s="33"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="37"/>
+      <c r="A138" s="33"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="37"/>
+      <c r="A139" s="33"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="37"/>
+      <c r="A140" s="33"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="37"/>
+      <c r="A141" s="33"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="37"/>
+      <c r="A142" s="33"/>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="37"/>
-    </row>
-    <row r="144" spans="1:13">
-      <c r="A144" s="37"/>
-      <c r="M144" s="40"/>
-    </row>
-    <row r="145" spans="1:13">
-      <c r="A145" s="37"/>
-      <c r="M145" s="40"/>
-    </row>
-    <row r="146" spans="1:13">
-      <c r="A146" s="37"/>
-      <c r="M146" s="40"/>
-    </row>
-    <row r="147" spans="1:13">
-      <c r="A147" s="37"/>
-      <c r="M147" s="40"/>
+      <c r="A143" s="33"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="33"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="33"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="33"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="33"/>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="37"/>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="37"/>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="37"/>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="37"/>
-    </row>
-    <row r="153" spans="1:13">
-      <c r="A153" s="37"/>
-      <c r="M153" s="40"/>
-    </row>
-    <row r="154" spans="1:13">
-      <c r="A154" s="37"/>
-      <c r="M154" s="40"/>
-    </row>
-    <row r="155" spans="1:13">
-      <c r="A155" s="37"/>
-      <c r="M155" s="40"/>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="37"/>
+      <c r="A148" s="33"/>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="33"/>
+      <c r="M149" s="36"/>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="33"/>
+      <c r="M150" s="36"/>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="33"/>
+      <c r="M151" s="36"/>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="33"/>
+      <c r="M152" s="36"/>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="33"/>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="33"/>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="33"/>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="37"/>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="37"/>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="37"/>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="37"/>
+      <c r="A157" s="33"/>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="33"/>
+      <c r="M158" s="36"/>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="33"/>
+      <c r="M159" s="36"/>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="33"/>
+      <c r="M160" s="36"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="37"/>
+      <c r="A161" s="33"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="37"/>
+      <c r="A162" s="33"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="37"/>
+      <c r="A163" s="33"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="37"/>
+      <c r="A164" s="33"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="37"/>
+      <c r="A165" s="33"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="37"/>
+      <c r="A166" s="33"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="37"/>
+      <c r="A167" s="33"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="37"/>
+      <c r="A168" s="33"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="37"/>
+      <c r="A169" s="33"/>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="33"/>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="33"/>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="33"/>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="33"/>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3710,7 +3979,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3718,7 +3987,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3726,7 +3995,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3734,7 +4003,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3742,7 +4011,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3750,7 +4019,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3758,7 +4027,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -3786,7 +4055,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3794,7 +4063,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3812,7 +4081,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3827,13 +4096,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3841,7 +4110,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -3858,7 +4127,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3869,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3877,7 +4146,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3885,7 +4154,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3909,7 +4178,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3917,7 +4186,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3958,7 +4227,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="B1">
         <v>7</v>
@@ -3966,7 +4235,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -3974,7 +4243,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B3">
         <v>8</v>
